--- a/NCACY35_0.5_1.xlsx_fitting_results.xlsx
+++ b/NCACY35_0.5_1.xlsx_fitting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>W</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -492,31 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0210792377147336</v>
+        <v>0.02121956441638789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001240279909672501</v>
+        <v>0.001445345285800863</v>
       </c>
       <c r="D2" t="n">
-        <v>9.99999950852402</v>
+        <v>0.8625920644054452</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7160813044836278</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001681961977253025</v>
+        <v>0.001255869470427708</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2162676702004267</v>
+        <v>299.9999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.103332740952149e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004384898468338931</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.146899563222849e-07</v>
+        <v>0.00368034275341388</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0211270257364064</v>
+        <v>0.02120014357669715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001603941130230983</v>
+        <v>0.002075243272040297</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2808584439471026</v>
+        <v>1.479946178805301</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9128802169778644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002308902189404615</v>
+        <v>0.001261617650658718</v>
       </c>
       <c r="G3" t="n">
-        <v>8.30519898612838</v>
+        <v>299.9999999999978</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6892463179259766</v>
+        <v>4.703314707027905e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004693411889328075</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.184921170401473e-07</v>
+        <v>0.003995534324992663</v>
       </c>
     </row>
     <row r="4">
@@ -560,31 +549,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02108216320130971</v>
+        <v>0.02207581937824452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001224684756222356</v>
+        <v>0.002855711622747827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3360166707455539</v>
+        <v>2.187138386060555</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.844844867421957</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003601632141554748</v>
+        <v>0.002895764781015539</v>
       </c>
       <c r="G4" t="n">
-        <v>5.772894295456789</v>
+        <v>163.5230461760027</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6821962927273267</v>
+        <v>0.5830426941218401</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004753623969278199</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.212514459268699e-07</v>
+        <v>0.002485305920937162</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +580,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02138378113753516</v>
+        <v>0.02046204970060334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003565009901166147</v>
+        <v>0.004204696434808969</v>
       </c>
       <c r="D5" t="n">
-        <v>8.703770138428228</v>
+        <v>4.346950427801343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7106561937257895</v>
+        <v>0.7265178446655683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001579416286292972</v>
+        <v>0.002537728643225779</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3725241011805043</v>
+        <v>299.9999999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999997995</v>
+        <v>9.145439608593047e-17</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00474401581496782</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.144679861435182e-07</v>
+        <v>0.004280342344450738</v>
       </c>
     </row>
     <row r="6">
@@ -628,31 +611,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02140552139576085</v>
+        <v>0.02208973230680505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004512931945174834</v>
+        <v>0.001292647194668187</v>
       </c>
       <c r="D6" t="n">
-        <v>7.993982486035765</v>
+        <v>1.281181184703205</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7246785385672762</v>
+        <v>0.9999999999999631</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001571601861174869</v>
+        <v>0.004302017538632456</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3830585113928025</v>
+        <v>8.021319177154709</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.7545192453256696</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004750401082404967</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.156959555481218e-07</v>
+        <v>0.002357906202151283</v>
       </c>
     </row>
     <row r="7">
@@ -662,31 +642,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0214247295875317</v>
+        <v>0.01714687474960839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005408172055124748</v>
+        <v>0.006815373147947986</v>
       </c>
       <c r="D7" t="n">
-        <v>7.633429741639676</v>
+        <v>7.025560027815525</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7434922012344736</v>
+        <v>0.6529886297020084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001640139053103266</v>
+        <v>0.06942183661076066</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3834284409291189</v>
+        <v>199.9172421933974</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.057003896143136e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004765954437101945</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.156828007593343e-07</v>
+        <v>0.004660070689143248</v>
       </c>
     </row>
     <row r="8">
@@ -696,31 +673,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02146186335005373</v>
+        <v>0.02212143412353126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00634808591066922</v>
+        <v>0.001560624508284005</v>
       </c>
       <c r="D8" t="n">
-        <v>7.401282044522426</v>
+        <v>1.070261596120287</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7624730735030285</v>
+        <v>0.9999999999995043</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001747575331477805</v>
+        <v>0.006024989949132881</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3839476126011116</v>
+        <v>6.540187639950096</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999999999999823</v>
+        <v>0.8178137053380793</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004777355323919629</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.156914376809412e-07</v>
+        <v>0.002379127342712597</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +704,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02150930155246706</v>
+        <v>0.02217012877114018</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007254804996741893</v>
+        <v>0.001748538341823462</v>
       </c>
       <c r="D9" t="n">
-        <v>7.068675823286426</v>
+        <v>1.007204734390232</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7859452309347608</v>
+        <v>0.9999999999999918</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001887022524645981</v>
+        <v>0.006869448581603686</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3786117319555661</v>
+        <v>6.132314941353682</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9999999999996538</v>
+        <v>0.8463808503996119</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004835024623643752</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.161599363027057e-07</v>
+        <v>0.002410483937391358</v>
       </c>
     </row>
     <row r="10">
@@ -764,31 +735,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0215754457908825</v>
+        <v>0.02221276475764817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008242813095949739</v>
+        <v>0.007736005373561598</v>
       </c>
       <c r="D10" t="n">
-        <v>6.854019933150131</v>
+        <v>7.026742335874939</v>
       </c>
       <c r="E10" t="n">
-        <v>0.804322964727138</v>
+        <v>0.8358971472584366</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00203220527831039</v>
+        <v>0.001814210251020522</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3950529920479224</v>
+        <v>0.9483874548113629</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9942255802328003</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004900656507804267</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.161690894013609e-07</v>
+        <v>0.002470799311563669</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +766,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02163816031983212</v>
+        <v>0.0222790533843289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009231227798784903</v>
+        <v>0.008855548116931499</v>
       </c>
       <c r="D11" t="n">
-        <v>6.708913544757685</v>
+        <v>6.77765654453371</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8218000262666949</v>
+        <v>0.8453000391256263</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002249852310018523</v>
+        <v>0.001900513076924277</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4831251897055961</v>
+        <v>0.9288296957342287</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9661525481396329</v>
+        <v>0.9999999999998931</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004943424342860124</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.158516384150277e-07</v>
+        <v>0.002490296275440959</v>
       </c>
     </row>
     <row r="12">
@@ -832,31 +797,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02171157091081091</v>
+        <v>0.02235744962717308</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01021276359189995</v>
+        <v>0.009952777898537398</v>
       </c>
       <c r="D12" t="n">
-        <v>6.583935187509304</v>
+        <v>6.594764029323778</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8370753264979693</v>
+        <v>0.8540847155652683</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002454061658618693</v>
+        <v>0.00198916518752464</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5753441171036179</v>
+        <v>0.9138667130583499</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9420506485517365</v>
+        <v>0.9999999999998507</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005035495001289303</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.162141204975691e-07</v>
+        <v>0.002533716354644298</v>
       </c>
     </row>
     <row r="13">
@@ -866,31 +828,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02178102386234262</v>
+        <v>0.0224499865905003</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01127637561776887</v>
+        <v>0.01113691099857987</v>
       </c>
       <c r="D13" t="n">
-        <v>6.465097804981798</v>
+        <v>6.434866006618491</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8507778035893582</v>
+        <v>0.861894203626723</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002679301011506417</v>
+        <v>0.002077667870373332</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6905418697634604</v>
+        <v>0.9012407810062724</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9149484002507222</v>
+        <v>0.9999999999992129</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00510479360746114</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.167161276885767e-07</v>
+        <v>0.002564820158905154</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +859,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02186608295083267</v>
+        <v>0.02253731744796434</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0123846245415864</v>
+        <v>0.0122695953171502</v>
       </c>
       <c r="D14" t="n">
-        <v>6.329055463440346</v>
+        <v>6.299642432145585</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8631221332283363</v>
+        <v>0.8723590451205686</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002905593532511428</v>
+        <v>0.002274017902456881</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8069760279132967</v>
+        <v>1.012056773832027</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8910927453224962</v>
+        <v>0.9757896397397126</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005209816236642375</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.168689159902219e-07</v>
+        <v>0.002616572892677789</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +890,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02196230439065202</v>
+        <v>0.02262991054292991</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01367483491115569</v>
+        <v>0.01356314129690133</v>
       </c>
       <c r="D15" t="n">
-        <v>6.2763182760622</v>
+        <v>6.252794466584813</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8699888168757648</v>
+        <v>0.8781955755437653</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003100880430289343</v>
+        <v>0.002463864299634948</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9090755342691488</v>
+        <v>1.135450821465608</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8727498568432988</v>
+        <v>0.9523033189526391</v>
       </c>
       <c r="I15" t="n">
-        <v>0.005313831500116718</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.172597181871902e-07</v>
+        <v>0.002668489035577279</v>
       </c>
     </row>
     <row r="16">
@@ -968,31 +921,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02205709525232455</v>
+        <v>0.02272876084391694</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01499670297385106</v>
+        <v>0.01496687771764827</v>
       </c>
       <c r="D16" t="n">
-        <v>6.203017462360036</v>
+        <v>6.161048058625145</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8747228084387701</v>
+        <v>0.8800315188004071</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003270067639060731</v>
+        <v>0.002550403209749301</v>
       </c>
       <c r="G16" t="n">
-        <v>0.994460428383803</v>
+        <v>1.100982033936592</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8576773491250248</v>
+        <v>0.9535549361905311</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005369331075094024</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.171931396645014e-07</v>
+        <v>0.002693249697902316</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +952,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02218160191729207</v>
+        <v>0.02286226113454446</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01633972600011987</v>
+        <v>0.01631854306337834</v>
       </c>
       <c r="D17" t="n">
-        <v>6.131781752131924</v>
+        <v>6.093993316377688</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8803976472389079</v>
+        <v>0.8850001616382706</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003471246912039224</v>
+        <v>0.00272849329388137</v>
       </c>
       <c r="G17" t="n">
-        <v>1.097523983479551</v>
+        <v>1.206486163135008</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8401487464952662</v>
+        <v>0.9333869621928572</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005462880019312681</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.174858152010401e-07</v>
+        <v>0.002739429800064105</v>
       </c>
     </row>
     <row r="18">
@@ -1036,31 +983,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02212661844311221</v>
+        <v>0.02296567495909112</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0176611919743219</v>
+        <v>0.01777015634757612</v>
       </c>
       <c r="D18" t="n">
-        <v>6.091795866337288</v>
+        <v>6.02878730030565</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8870406167636541</v>
+        <v>0.8885517118637739</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00399622927647348</v>
+        <v>0.00295375159798613</v>
       </c>
       <c r="G18" t="n">
-        <v>1.486601225728303</v>
+        <v>1.354251872899317</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7760404057221629</v>
+        <v>0.905133997860434</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005579002751588203</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.141452552962129e-07</v>
+        <v>0.002791156689594878</v>
       </c>
     </row>
     <row r="19">
@@ -1070,31 +1014,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02248588463676848</v>
+        <v>0.02319516582344292</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01927637066236254</v>
+        <v>0.01926620903372019</v>
       </c>
       <c r="D19" t="n">
-        <v>5.997154722153455</v>
+        <v>5.965414945957993</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8863718803286706</v>
+        <v>0.8899901025103433</v>
       </c>
       <c r="F19" t="n">
-        <v>0.003838069126196322</v>
+        <v>0.003044567694205297</v>
       </c>
       <c r="G19" t="n">
-        <v>1.243986297658594</v>
+        <v>1.358760992167846</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8141007061343729</v>
+        <v>0.9032812371517805</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00568750385770446</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.167494061519934e-07</v>
+        <v>0.002850808431740012</v>
       </c>
     </row>
     <row r="20">
@@ -1104,31 +1045,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02266800985055747</v>
+        <v>0.02334247979302064</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02076936737990149</v>
+        <v>0.003761847912163869</v>
       </c>
       <c r="D20" t="n">
-        <v>5.910002997616107</v>
+        <v>2.090771855267084</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8908209963879218</v>
+        <v>0.8271727655199363</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004092679273252669</v>
+        <v>0.02081733654346933</v>
       </c>
       <c r="G20" t="n">
-        <v>1.361899311118214</v>
+        <v>5.360731384168728</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7960026227521454</v>
+        <v>0.9141571424154349</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005802756541234914</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.171581207801222e-07</v>
+        <v>0.002841934554304437</v>
       </c>
     </row>
     <row r="21">
@@ -1138,31 +1076,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02286680001461274</v>
+        <v>0.02356944781792578</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02244834499546735</v>
+        <v>0.003879958404215773</v>
       </c>
       <c r="D21" t="n">
-        <v>5.833948777824301</v>
+        <v>2.091935288045792</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8910396775671129</v>
+        <v>0.8208870613531932</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004261590666009625</v>
+        <v>0.02256296467072452</v>
       </c>
       <c r="G21" t="n">
-        <v>1.392807528154378</v>
+        <v>5.304150165244917</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7864669755009845</v>
+        <v>0.9124607165467373</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005955793851323258</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.166252611234674e-07</v>
+        <v>0.002911185638317323</v>
       </c>
     </row>
     <row r="22">
@@ -1172,31 +1107,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02308929358664528</v>
+        <v>0.02381327051676207</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02409308625001732</v>
+        <v>0.004140087554794802</v>
       </c>
       <c r="D22" t="n">
-        <v>5.745531155633142</v>
+        <v>2.230086841344671</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8935935434715564</v>
+        <v>0.8031276879358235</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004523397894379194</v>
+        <v>0.02421341300257159</v>
       </c>
       <c r="G22" t="n">
-        <v>1.48807803894213</v>
+        <v>5.241568003685231</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7705884162425869</v>
+        <v>0.9144138899065655</v>
       </c>
       <c r="I22" t="n">
-        <v>0.006105603587266009</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.167612540410194e-07</v>
+        <v>0.002980455855465397</v>
       </c>
     </row>
     <row r="23">
@@ -1206,31 +1138,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02330666737943371</v>
+        <v>0.0241234322216278</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005757377025769387</v>
+        <v>0.004320184862456708</v>
       </c>
       <c r="D23" t="n">
-        <v>2.483243240276275</v>
+        <v>2.150346256619801</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6939470735329385</v>
+        <v>0.801573126913436</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02614068515851768</v>
+        <v>0.02608555510874705</v>
       </c>
       <c r="G23" t="n">
-        <v>4.786725495739421</v>
+        <v>5.135580462151894</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9268972408614051</v>
+        <v>0.9145984514611983</v>
       </c>
       <c r="I23" t="n">
-        <v>0.005970055463830309</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.165630329246352e-07</v>
+        <v>0.003066670454048492</v>
       </c>
     </row>
     <row r="24">
@@ -1240,31 +1169,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02346321794929015</v>
+        <v>0.02444295274583537</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02772375125088957</v>
+        <v>0.004734191039637876</v>
       </c>
       <c r="D24" t="n">
-        <v>5.512739345772486</v>
+        <v>2.328901987087622</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8999130489481018</v>
+        <v>0.7744528781839656</v>
       </c>
       <c r="F24" t="n">
-        <v>0.005604069766370806</v>
+        <v>0.02812458507349191</v>
       </c>
       <c r="G24" t="n">
-        <v>2.036539965679725</v>
+        <v>5.029982226417398</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6928337866346966</v>
+        <v>0.9158409072142404</v>
       </c>
       <c r="I24" t="n">
-        <v>0.006468962309115011</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.13354840978427e-07</v>
+        <v>0.003134163373520445</v>
       </c>
     </row>
     <row r="25">
@@ -1274,31 +1200,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0238666588983545</v>
+        <v>0.02492289298816047</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02971035382962316</v>
+        <v>0.005009734474105759</v>
       </c>
       <c r="D25" t="n">
-        <v>5.357882870328457</v>
+        <v>2.234178431541296</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9017651388896264</v>
+        <v>0.770757323229877</v>
       </c>
       <c r="F25" t="n">
-        <v>0.006065659723442988</v>
+        <v>0.03026395822114132</v>
       </c>
       <c r="G25" t="n">
-        <v>2.152065614013507</v>
+        <v>4.885522776833405</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6739973061228981</v>
+        <v>0.9156850537571922</v>
       </c>
       <c r="I25" t="n">
-        <v>0.006742091951258698</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.131717302241144e-07</v>
+        <v>0.003254976939381104</v>
       </c>
     </row>
   </sheetData>
